--- a/Team-Data/2012-13/1-25-2012-13.xlsx
+++ b/Team-Data/2012-13/1-25-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
@@ -693,34 +760,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.698</v>
+        <v>0.696</v>
       </c>
       <c r="R2" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>8.300000000000001</v>
@@ -729,22 +796,22 @@
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,25 +823,25 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -783,16 +850,16 @@
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -801,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="AW2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
         <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.465</v>
+        <v>0.476</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
@@ -878,70 +945,70 @@
         <v>16.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
         <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T3" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
@@ -959,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -971,34 +1038,34 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O4" t="n">
         <v>18.3</v>
@@ -1069,22 +1136,22 @@
         <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S4" t="n">
         <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1096,40 +1163,40 @@
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1138,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1147,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>7</v>
@@ -1156,7 +1223,7 @@
         <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1180,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1299,13 +1366,13 @@
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
         <v>16</v>
@@ -1329,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
         <v>22.8</v>
@@ -1451,58 +1518,58 @@
         <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA6" t="n">
         <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,40 +1581,40 @@
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.273</v>
+        <v>0.256</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
         <v>16.7</v>
@@ -1618,16 +1685,16 @@
         <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
@@ -1642,19 +1709,19 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1675,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1696,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="H8" t="n">
         <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
         <v>0.45</v>
@@ -1788,28 +1855,28 @@
         <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
         <v>14.5</v>
@@ -1818,10 +1885,10 @@
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
         <v>21.2</v>
@@ -1830,13 +1897,13 @@
         <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC8" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1863,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1881,22 +1948,22 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2042,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2075,7 +2142,7 @@
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2093,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,19 +2207,19 @@
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
         <v>16.6</v>
@@ -2167,16 +2234,16 @@
         <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T10" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>6.3</v>
@@ -2191,16 +2258,16 @@
         <v>19.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,28 +2279,28 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>23</v>
@@ -2266,13 +2333,13 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.619</v>
+        <v>0.634</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
         <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2448,7 +2515,7 @@
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.453</v>
@@ -2513,10 +2580,10 @@
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
@@ -2525,10 +2592,10 @@
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
@@ -2540,34 +2607,34 @@
         <v>22.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
@@ -2579,10 +2646,10 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>11</v>
@@ -2594,13 +2661,13 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
@@ -2624,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,16 +2834,16 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
@@ -2785,10 +2852,10 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2797,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2815,13 +2882,13 @@
         <v>11</v>
       </c>
       <c r="BA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC13" t="n">
         <v>10</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2961,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2994,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.419</v>
+        <v>0.405</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.694</v>
+        <v>0.696</v>
       </c>
       <c r="R15" t="n">
         <v>12.3</v>
@@ -3083,7 +3150,7 @@
         <v>44.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3092,34 +3159,34 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3131,16 +3198,16 @@
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3149,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3164,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>22</v>
@@ -3179,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="R16" t="n">
         <v>13.5</v>
@@ -3265,16 +3332,16 @@
         <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>6</v>
@@ -3283,16 +3350,16 @@
         <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,37 +3371,37 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3343,10 +3410,10 @@
         <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3358,13 +3425,13 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.491</v>
+        <v>0.489</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="n">
         <v>17.4</v>
@@ -3435,16 +3502,16 @@
         <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U17" t="n">
         <v>22.5</v>
@@ -3453,28 +3520,28 @@
         <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3504,10 +3571,10 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.537</v>
+        <v>0.55</v>
       </c>
       <c r="H18" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J18" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R18" t="n">
         <v>12.7</v>
@@ -3626,19 +3693,19 @@
         <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y18" t="n">
         <v>4.3</v>
@@ -3647,22 +3714,22 @@
         <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD18" t="n">
         <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,16 +3747,16 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3701,19 +3768,19 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
         <v>9</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.425</v>
+        <v>0.436</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J19" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.43</v>
@@ -3787,31 +3854,31 @@
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.291</v>
+        <v>0.292</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.738</v>
       </c>
       <c r="R19" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
@@ -3820,31 +3887,31 @@
         <v>7.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3853,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
@@ -3862,7 +3929,7 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
@@ -3874,16 +3941,16 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
@@ -3892,13 +3959,13 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
         <v>22</v>
@@ -3907,13 +3974,13 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,7 +4039,7 @@
         <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
       <c r="O20" t="n">
         <v>14.4</v>
@@ -3981,22 +4048,22 @@
         <v>18.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4008,34 +4075,34 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4044,19 +4111,19 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>18</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4065,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4080,10 +4147,10 @@
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>18</v>
@@ -4092,10 +4159,10 @@
         <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
@@ -4214,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4247,13 +4314,13 @@
         <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.773</v>
+        <v>0.767</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
@@ -4324,22 +4391,22 @@
         <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.478</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O22" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
         <v>27.3</v>
@@ -4351,22 +4418,22 @@
         <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
         <v>4.1</v>
@@ -4375,16 +4442,16 @@
         <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
         <v>105.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
@@ -4581,13 +4648,13 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4614,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>5</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>10</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -4748,37 +4815,37 @@
         <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
         <v>19</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>20</v>
       </c>
-      <c r="AF24" t="n">
-        <v>19</v>
-      </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4814,7 +4881,7 @@
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>4</v>
@@ -4957,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4972,7 +5039,7 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>27</v>
@@ -4981,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5121,10 +5188,10 @@
         <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5145,7 +5212,7 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5160,13 +5227,13 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
         <v>20</v>
@@ -5184,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5237,28 +5304,28 @@
         <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O27" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
         <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S27" t="n">
         <v>28.6</v>
@@ -5267,13 +5334,13 @@
         <v>40.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X27" t="n">
         <v>4.7</v>
@@ -5282,58 +5349,58 @@
         <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5342,19 +5409,19 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
         <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5434,31 +5501,31 @@
         <v>16.2</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>15</v>
       </c>
       <c r="W28" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5467,10 +5534,10 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC28" t="n">
         <v>8.1</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5506,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5533,13 +5600,13 @@
         <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
@@ -5682,13 +5749,13 @@
         <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5762,19 +5829,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.535</v>
+        <v>0.548</v>
       </c>
       <c r="H30" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
         <v>36.7</v>
@@ -5783,43 +5850,43 @@
         <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
         <v>17.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>6.3</v>
@@ -5828,19 +5895,19 @@
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,10 +5919,10 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5879,37 +5946,37 @@
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW30" t="n">
         <v>10</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.244</v>
+        <v>0.225</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="J31" t="n">
         <v>83.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.421</v>
+        <v>0.417</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O31" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.4</v>
@@ -6004,43 +6071,43 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5</v>
       </c>
-      <c r="Y31" t="n">
-        <v>4.9</v>
-      </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="AD31" t="n">
         <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI31" t="n">
         <v>29</v>
       </c>
-      <c r="AH31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6052,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6064,13 +6131,13 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6082,19 +6149,19 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-25-2012-13</t>
+          <t>2013-01-25</t>
         </is>
       </c>
     </row>
